--- a/Mobile_adapter_5V_1A_LQ/BOM File/Feedback_Mobile_adapter_5V_1A_LQ_BOM.xlsx
+++ b/Mobile_adapter_5V_1A_LQ/BOM File/Feedback_Mobile_adapter_5V_1A_LQ_BOM.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Work!$A$3:$H$24</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>5V 1A LQ SMPS BOM</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>2.2Ω 1/2W</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>XL-A324SURSYGW</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -431,6 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -802,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,7 +1248,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1271,7 +1278,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1415,7 +1422,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1451,7 +1458,9 @@
       <c r="C24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>60</v>
       </c>
@@ -1468,8 +1477,11 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1540,9 +1552,10 @@
     <hyperlink ref="H7" r:id="rId3"/>
     <hyperlink ref="H5" r:id="rId4"/>
     <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="J24" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>